--- a/Laboratory Work/Risk Assessment.xlsx
+++ b/Laboratory Work/Risk Assessment.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naude Conradie\Desktop\Repository\Masters-Project\Laboratory Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7464A7F-E20D-4696-BB8F-98E4894EB4FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6A2040-39F6-49B8-99EA-D3EF4BC02F88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4D2BF040-0B65-4101-96DF-6BCD17CC1211}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Risks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
   <si>
     <t>Activity</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Entering the lab</t>
   </si>
   <si>
-    <t>Injuries to hands from the door</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -153,7 +150,229 @@
     <t>Moving DIC equipment from storage to the appropriate position</t>
   </si>
   <si>
-    <t>Damage to equipment</t>
+    <t>Turning on equipment</t>
+  </si>
+  <si>
+    <t>Electrical shock</t>
+  </si>
+  <si>
+    <t>Check all cabling before plugging in or switching on to ensure the insulation is intact</t>
+  </si>
+  <si>
+    <t>Creating new test methods</t>
+  </si>
+  <si>
+    <t>Overwriting the test method templates</t>
+  </si>
+  <si>
+    <t>Follow instructions carefully and be aware when saving the new test methods</t>
+  </si>
+  <si>
+    <t>P&amp;E</t>
+  </si>
+  <si>
+    <t>Moving around the laboratory</t>
+  </si>
+  <si>
+    <t>Manually adjusting the crosshead height</t>
+  </si>
+  <si>
+    <t>Injuring yourself</t>
+  </si>
+  <si>
+    <t>Keep clear of the crush zone between the crosshead and load frame when making adjustments</t>
+  </si>
+  <si>
+    <t>Compressing the load cell above its limits</t>
+  </si>
+  <si>
+    <t>Always check that the hard-limits are set correctly before commencing testing, and turn off the handset to avoid accidental adjustment</t>
+  </si>
+  <si>
+    <t>Changing grips</t>
+  </si>
+  <si>
+    <t>Hand injuries from tool misuse</t>
+  </si>
+  <si>
+    <t>Correctly use tools, do not use excessive force and be cautious</t>
+  </si>
+  <si>
+    <t>Be cautious and aware of your surroundings</t>
+  </si>
+  <si>
+    <t>Be careful when moving equipment</t>
+  </si>
+  <si>
+    <t>Dropping a grip</t>
+  </si>
+  <si>
+    <t>Always wear closed shoes in the laboratory, hold grips firmly and carefully, and be cautious</t>
+  </si>
+  <si>
+    <t>Fitting the sample</t>
+  </si>
+  <si>
+    <t>Finger injuries</t>
+  </si>
+  <si>
+    <t>Use fine adjustment and be cautious</t>
+  </si>
+  <si>
+    <t>Overtightening the grips</t>
+  </si>
+  <si>
+    <t>Do not force the grips once they are tightened appropriately</t>
+  </si>
+  <si>
+    <t>Switching on lights</t>
+  </si>
+  <si>
+    <t>Shocking yourself</t>
+  </si>
+  <si>
+    <t>Injuring yourself due to improper use of the door</t>
+  </si>
+  <si>
+    <t>Tripping and falling over equipment</t>
+  </si>
+  <si>
+    <t>Inspect the switch before using it for signs of damage</t>
+  </si>
+  <si>
+    <t>Setting up for the mixing process</t>
+  </si>
+  <si>
+    <t>Dropping materials and equipment</t>
+  </si>
+  <si>
+    <t>Be careful when handling materials and equipment</t>
+  </si>
+  <si>
+    <t>Degassing specimens</t>
+  </si>
+  <si>
+    <t>Improper use of the degasser</t>
+  </si>
+  <si>
+    <t>Equipment failure</t>
+  </si>
+  <si>
+    <t>Inspect the degasser for any signs of damage before use</t>
+  </si>
+  <si>
+    <t>Inspect the degasser before use and make sure to exactly follow instructions for use</t>
+  </si>
+  <si>
+    <t>Preparing specimens</t>
+  </si>
+  <si>
+    <t>Improper procedures resulting in contaminated or unusable specimens</t>
+  </si>
+  <si>
+    <t>Make sure to exactly follow preparation instructions and be careful</t>
+  </si>
+  <si>
+    <t>Damaging equipment</t>
+  </si>
+  <si>
+    <t>Fitting the extensometer</t>
+  </si>
+  <si>
+    <t>Dropping the extensometer</t>
+  </si>
+  <si>
+    <t>Be careful and attach the extensometer to the MTS frame to prevent it from falling to the ground</t>
+  </si>
+  <si>
+    <t>Applying a tensile load to the sample</t>
+  </si>
+  <si>
+    <t>Compressing the load cell</t>
+  </si>
+  <si>
+    <t>Verify the crosshead direction is correct before commencing testing</t>
+  </si>
+  <si>
+    <t>Overloading the load cell and grips</t>
+  </si>
+  <si>
+    <t>Ensure the load limits are set to +25000N and -400N before commencing testing</t>
+  </si>
+  <si>
+    <t>Capturing relevant data</t>
+  </si>
+  <si>
+    <t>Overextending the extensometer</t>
+  </si>
+  <si>
+    <t>Remove the extensometer before its maximum extension has been reached</t>
+  </si>
+  <si>
+    <t>Extensometer failure due to sample failure</t>
+  </si>
+  <si>
+    <t>Remove the extensometer before sample failure</t>
+  </si>
+  <si>
+    <t>Failing to capture data</t>
+  </si>
+  <si>
+    <t>Check that all recording equipment is properly set up before commencing testing</t>
+  </si>
+  <si>
+    <t>Removing the extensometer</t>
+  </si>
+  <si>
+    <t>Be careful and place the extensometer on a safe area</t>
+  </si>
+  <si>
+    <t>Removing the specimen</t>
+  </si>
+  <si>
+    <t>Ensure the crosshead is stationary and will not be activated before removing the specimen</t>
+  </si>
+  <si>
+    <t>Returning the crosshead</t>
+  </si>
+  <si>
+    <t>Bodily injuries</t>
+  </si>
+  <si>
+    <t>Be careful and ensure you are standing away from the MTS frame when returning the crosshead</t>
+  </si>
+  <si>
+    <t>Removing the grips</t>
+  </si>
+  <si>
+    <t>Backing up recorded data</t>
+  </si>
+  <si>
+    <t>Loss of data</t>
+  </si>
+  <si>
+    <t>Store data according to guidelines and keep sufficient independent backups</t>
+  </si>
+  <si>
+    <t>Turning off equipment</t>
+  </si>
+  <si>
+    <t>Check all cabling before switching off or plugging out to ensure insulation is intact</t>
+  </si>
+  <si>
+    <t>Tidying the workstation</t>
+  </si>
+  <si>
+    <t>Locking the laboratory</t>
+  </si>
+  <si>
+    <t>Returning the key</t>
+  </si>
+  <si>
+    <t>Losing the key</t>
+  </si>
+  <si>
+    <t>Be careful when handling the key and be conscious of its whereabouts until it has been handed over to the appropriate personnel</t>
   </si>
 </sst>
 </file>
@@ -209,8 +428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16E996D0-B49D-440E-865A-BB942778D620}" name="Table1" displayName="Table1" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{959FE798-FA2F-435C-B7DB-FE7EF0EA07BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16E996D0-B49D-440E-865A-BB942778D620}" name="Table1" displayName="Table1" ref="A1:I44" totalsRowShown="0">
+  <autoFilter ref="A1:I44" xr:uid="{959FE798-FA2F-435C-B7DB-FE7EF0EA07BA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5810CAFA-0C80-47D7-BC75-AB9E48BDAAB2}" name="Activity"/>
     <tableColumn id="2" xr3:uid="{57A43EC7-F6E2-4CF2-AF7C-9CA378ABDC8B}" name="Risk"/>
@@ -538,25 +757,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BC4B43-30E4-4B8A-9A41-C10CF92477BB}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="123.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -588,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -599,251 +819,1367 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2">
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>0.4</v>
       </c>
       <c r="G2">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>0.24000000000000005</v>
+        <v>0.48000000000000009</v>
       </c>
       <c r="H2" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
         <v>Acceptable Risk</v>
       </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
       <c r="K2" t="s">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>42</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>9</v>
-      </c>
-      <c r="H3" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
       </c>
       <c r="L3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>8.4000000000000021</v>
+      </c>
+      <c r="H4" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+      <c r="G5">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
       <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>0.4</v>
+      </c>
+      <c r="G6">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="H6" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
         <v>16</v>
       </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K6" t="s">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>36</v>
+      </c>
+      <c r="H7" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
         <v>17</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K7" t="s">
-        <v>18</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H8" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>45</v>
+      </c>
+      <c r="H9" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>18</v>
+      </c>
+      <c r="H10" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
       <c r="K10" t="s">
         <v>4</v>
       </c>
       <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>42</v>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K11" t="s">
-        <v>24</v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0.4</v>
+      </c>
+      <c r="G12">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="H12" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
       <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
         <v>25</v>
       </c>
-      <c r="L12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
         <v>26</v>
       </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14" t="s">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H15" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" t="s">
         <v>27</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
-        <v>28</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H16" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H17" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
       <c r="K18" t="s">
         <v>5</v>
       </c>
       <c r="L18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>18</v>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
-        <v>32</v>
       </c>
       <c r="L19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>42</v>
+      </c>
+      <c r="H20" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L20">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>21</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I21" t="s">
+        <v>88</v>
+      </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>108</v>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I22" t="s">
+        <v>91</v>
+      </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>108</v>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
       <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>18</v>
+      </c>
+      <c r="H24" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+      <c r="I24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" t="s">
         <v>36</v>
       </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K24" t="s">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>54</v>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" t="s">
         <v>37</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K25" t="s">
-        <v>38</v>
       </c>
       <c r="L25">
         <v>0.4</v>
       </c>
     </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H26" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H28" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>126</v>
+      </c>
+      <c r="H29" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Substantial risk</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>54</v>
+      </c>
+      <c r="H30" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>42</v>
+      </c>
+      <c r="H31" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>42</v>
+      </c>
+      <c r="H32" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>0.2</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>0.4</v>
+      </c>
+      <c r="G33">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>0.48000000000000009</v>
+      </c>
+      <c r="H33" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>54</v>
+      </c>
+      <c r="H34" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Possible risk</v>
+      </c>
+      <c r="I34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>6</v>
+      </c>
+      <c r="H35" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>6</v>
+      </c>
+      <c r="H36" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>6</v>
+      </c>
+      <c r="H37" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>6</v>
+      </c>
+      <c r="H38" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>6</v>
+      </c>
+      <c r="H39" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>6</v>
+      </c>
+      <c r="H40" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>6</v>
+      </c>
+      <c r="H41" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>6</v>
+      </c>
+      <c r="H42" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>6</v>
+      </c>
+      <c r="H43" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>6</v>
+      </c>
+      <c r="H44" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{30584D41-E928-4848-8412-C4AFAD9FE5A4}">
-      <formula1>"P,E"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C44" xr:uid="{30584D41-E928-4848-8412-C4AFAD9FE5A4}">
+      <formula1>"P,E,P&amp;E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E3" xr:uid="{4848BBFC-B1F3-48FA-B497-AED17183D7D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E44" xr:uid="{4848BBFC-B1F3-48FA-B497-AED17183D7D4}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>10,6,3,1,"0,5","0,2","0,1"</x12ac:list>
@@ -853,7 +2189,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{2EF2621C-B200-402C-B8B1-0C1A31C707F6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44" xr:uid="{2EF2621C-B200-402C-B8B1-0C1A31C707F6}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>100,40,15,7,3,1,"0,4"</x12ac:list>

--- a/Laboratory Work/Risk Assessment.xlsx
+++ b/Laboratory Work/Risk Assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naude Conradie\Desktop\Repository\Masters-Project\Laboratory Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6A2040-39F6-49B8-99EA-D3EF4BC02F88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A77B140-2E39-4357-A238-C467B8A9ED30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4D2BF040-0B65-4101-96DF-6BCD17CC1211}"/>
   </bookViews>

--- a/Laboratory Work/Risk Assessment.xlsx
+++ b/Laboratory Work/Risk Assessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naude Conradie\Desktop\Repository\Masters-Project\Laboratory Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19673418\Documents\Masters-Project\Laboratory Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A77B140-2E39-4357-A238-C467B8A9ED30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7ACA4-A5BB-43D1-85F5-AFBDD10081E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4D2BF040-0B65-4101-96DF-6BCD17CC1211}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
   <si>
     <t>Activity</t>
   </si>
@@ -373,6 +367,15 @@
   </si>
   <si>
     <t>Be careful when handling the key and be conscious of its whereabouts until it has been handed over to the appropriate personnel</t>
+  </si>
+  <si>
+    <t>Turning on DIC lights</t>
+  </si>
+  <si>
+    <t>Eye injuries</t>
+  </si>
+  <si>
+    <t>Make sure to not look directly at the lights when switching them on or while they are on</t>
   </si>
 </sst>
 </file>
@@ -428,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16E996D0-B49D-440E-865A-BB942778D620}" name="Table1" displayName="Table1" ref="A1:I44" totalsRowShown="0">
-  <autoFilter ref="A1:I44" xr:uid="{959FE798-FA2F-435C-B7DB-FE7EF0EA07BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16E996D0-B49D-440E-865A-BB942778D620}" name="Table1" displayName="Table1" ref="A1:I35" totalsRowShown="0">
+  <autoFilter ref="A1:I35" xr:uid="{959FE798-FA2F-435C-B7DB-FE7EF0EA07BA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5810CAFA-0C80-47D7-BC75-AB9E48BDAAB2}" name="Activity"/>
     <tableColumn id="2" xr3:uid="{57A43EC7-F6E2-4CF2-AF7C-9CA378ABDC8B}" name="Risk"/>
@@ -757,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BC4B43-30E4-4B8A-9A41-C10CF92477BB}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -765,18 +768,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="123.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="48" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1180,33 +1183,33 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>7.2</v>
+        <v>18</v>
       </c>
       <c r="H12" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
         <v>Acceptable Risk</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
         <v>24</v>
@@ -1217,13 +1220,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1232,18 +1235,18 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="G13">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>126</v>
+        <v>7.2</v>
       </c>
       <c r="H13" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Substantial risk</v>
+        <v>Acceptable Risk</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -1253,11 +1256,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1277,7 +1283,7 @@
         <v>Substantial risk</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -1287,14 +1293,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1314,7 +1317,7 @@
         <v>Substantial risk</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
         <v>27</v>
@@ -1324,11 +1327,14 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1348,7 +1354,7 @@
         <v>Substantial risk</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
         <v>28</v>
@@ -1358,14 +1364,11 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1385,7 +1388,7 @@
         <v>Substantial risk</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K17" t="s">
         <v>29</v>
@@ -1395,11 +1398,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1419,7 +1425,7 @@
         <v>Substantial risk</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
         <v>5</v>
@@ -1429,14 +1435,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1445,18 +1448,18 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="H19" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
+        <v>Substantial risk</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
         <v>31</v>
@@ -1467,33 +1470,33 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
       <c r="G20">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H20" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Possible risk</v>
+        <v>Acceptable Risk</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
         <v>32</v>
@@ -1503,14 +1506,17 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -1520,14 +1526,14 @@
       </c>
       <c r="G21">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H21" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
         <v>Possible risk</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s">
         <v>33</v>
@@ -1537,34 +1543,31 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E22">
         <v>6</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="H22" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Substantial risk</v>
+        <v>Possible risk</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s">
         <v>34</v>
@@ -1574,8 +1577,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1598,7 +1604,7 @@
         <v>Substantial risk</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s">
         <v>35</v>
@@ -1609,30 +1615,30 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="H24" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
+        <v>Substantial risk</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s">
         <v>36</v>
@@ -1642,11 +1648,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1658,18 +1661,18 @@
         <v>6</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H25" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Possible risk</v>
+        <v>Acceptable Risk</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s">
         <v>37</v>
@@ -1680,13 +1683,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1695,26 +1698,26 @@
         <v>6</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H26" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Substantial risk</v>
+        <v>Possible risk</v>
       </c>
       <c r="I26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1737,15 +1740,15 @@
         <v>Substantial risk</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1768,15 +1771,18 @@
         <v>Substantial risk</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1796,15 +1802,12 @@
         <v>Substantial risk</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>104</v>
-      </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -1816,60 +1819,60 @@
         <v>6</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G30">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="H30" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Possible risk</v>
+        <v>Substantial risk</v>
       </c>
       <c r="I30" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>6</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H31" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
         <v>Possible risk</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1889,35 +1892,35 @@
         <v>Possible risk</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
       <c r="F33">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="G33">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>0.48000000000000009</v>
+        <v>42</v>
       </c>
       <c r="H33" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
+        <v>Possible risk</v>
       </c>
       <c r="I33" t="s">
         <v>55</v>
@@ -1925,279 +1928,76 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>0.2</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>0.4</v>
+      </c>
+      <c r="G34">
+        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
+        <v>0.48000000000000009</v>
+      </c>
+      <c r="H34" t="str">
+        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
+        <v>Acceptable Risk</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>111</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>112</v>
       </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>54</v>
-      </c>
-      <c r="H34" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Possible risk</v>
-      </c>
-      <c r="I34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>6</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="H35" t="str">
         <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>6</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>6</v>
-      </c>
-      <c r="H36" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>6</v>
-      </c>
-      <c r="H37" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>6</v>
-      </c>
-      <c r="H38" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>6</v>
-      </c>
-      <c r="H39" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>6</v>
-      </c>
-      <c r="H40" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>6</v>
-      </c>
-      <c r="H41" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>6</v>
-      </c>
-      <c r="H42" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>6</v>
-      </c>
-      <c r="H43" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <f>Table1[[#This Row],[Likelihood]]*Table1[[#This Row],[Exposure]]*Table1[[#This Row],[Consequence]]</f>
-        <v>6</v>
-      </c>
-      <c r="H44" t="str">
-        <f>IF(Table1[[#This Row],[Score]]&gt;400, "Very high risk", IF(AND(Table1[[#This Row],[Score]]&lt;=400, Table1[[#This Row],[Score]]&gt;200), "High risk", IF(AND(Table1[[#This Row],[Score]]&lt;=200, Table1[[#This Row],[Score]]&gt;70), "Substantial risk", IF(AND(Table1[[#This Row],[Score]]&lt;=70,Table1[[#This Row],[Score]]&gt;20), "Possible risk", IF(Table1[[#This Row],[Score]]&lt;=20, "Acceptable Risk", "No risk")))))</f>
-        <v>Acceptable Risk</v>
+        <v>Possible risk</v>
+      </c>
+      <c r="I35" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C44" xr:uid="{30584D41-E928-4848-8412-C4AFAD9FE5A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35" xr:uid="{30584D41-E928-4848-8412-C4AFAD9FE5A4}">
       <formula1>"P,E,P&amp;E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E44" xr:uid="{4848BBFC-B1F3-48FA-B497-AED17183D7D4}">
-      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x12ac">
-          <x12ac:list>10,6,3,1,"0,5","0,2","0,1"</x12ac:list>
-        </mc:Choice>
-        <mc:Fallback>
-          <formula1>"10,6,3,1,0,5,0,2,0,1"</formula1>
-        </mc:Fallback>
-      </mc:AlternateContent>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E35" xr:uid="{4848BBFC-B1F3-48FA-B497-AED17183D7D4}">
+      <formula1>"10,6,3,1,0,5,0,2,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44" xr:uid="{2EF2621C-B200-402C-B8B1-0C1A31C707F6}">
-      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x12ac">
-          <x12ac:list>100,40,15,7,3,1,"0,4"</x12ac:list>
-        </mc:Choice>
-        <mc:Fallback>
-          <formula1>"100,40,15,7,3,1,0,4"</formula1>
-        </mc:Fallback>
-      </mc:AlternateContent>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{2EF2621C-B200-402C-B8B1-0C1A31C707F6}">
+      <formula1>"100,40,15,7,3,1,0,4"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laboratory Work/Risk Assessment.xlsx
+++ b/Laboratory Work/Risk Assessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19673418\Documents\Masters-Project\Laboratory Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7ACA4-A5BB-43D1-85F5-AFBDD10081E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3FBDC5-2F35-4A6D-BE3A-D94F484D3FEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4D2BF040-0B65-4101-96DF-6BCD17CC1211}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H11" sqref="H11:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,15 +1989,18 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35" xr:uid="{30584D41-E928-4848-8412-C4AFAD9FE5A4}">
       <formula1>"P,E,P&amp;E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E35" xr:uid="{4848BBFC-B1F3-48FA-B497-AED17183D7D4}">
-      <formula1>"10,6,3,1,0,5,0,2,0,1"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35" xr:uid="{4848BBFC-B1F3-48FA-B497-AED17183D7D4}">
+      <formula1>"10,6,3,1,0.5,0.2,0.1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{2EF2621C-B200-402C-B8B1-0C1A31C707F6}">
-      <formula1>"100,40,15,7,3,1,0,4"</formula1>
+      <formula1>"100,40,15,7,3,1,0.4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D35" xr:uid="{80D3FDAA-324F-4399-A698-044A367FD104}">
+      <formula1>"10,6,3,1,0.5,0.2,0.1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
